--- a/Equivalised disposable household income at top of selected percentiles, 1994–95 to 2019–20(a).xlsx
+++ b/Equivalised disposable household income at top of selected percentiles, 1994–95 to 2019–20(a).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18460" windowHeight="9690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18460" windowHeight="9690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Income per week at top of selected percentiles</t>
   </si>
@@ -32,66 +32,6 @@
   </si>
   <si>
     <t>P90</t>
-  </si>
-  <si>
-    <t>1994–95</t>
-  </si>
-  <si>
-    <t>1995–96</t>
-  </si>
-  <si>
-    <t>1996–97</t>
-  </si>
-  <si>
-    <t>1997–98</t>
-  </si>
-  <si>
-    <t>1999–00</t>
-  </si>
-  <si>
-    <t>2000–01</t>
-  </si>
-  <si>
-    <t>2002–03</t>
-  </si>
-  <si>
-    <t>2003–04</t>
-  </si>
-  <si>
-    <t>2005–06</t>
-  </si>
-  <si>
-    <t>2007–08</t>
-  </si>
-  <si>
-    <t>2009–10</t>
-  </si>
-  <si>
-    <t>2011–12</t>
-  </si>
-  <si>
-    <t>2013–14</t>
-  </si>
-  <si>
-    <t>2015–16</t>
-  </si>
-  <si>
-    <t>2017–18</t>
-  </si>
-  <si>
-    <t>2019-20</t>
-  </si>
-  <si>
-    <t>method improvement</t>
-  </si>
-  <si>
-    <t>a. In 2019–20 dollars, adjusted using changes in the Consumer Price Index</t>
-  </si>
-  <si>
-    <t>Source: ABS Survey of Income and Housing</t>
-  </si>
-  <si>
-    <t>Source: Australian Bureau of Statistics, Household Income and Wealth, Australia 2019-20 financial year</t>
   </si>
   <si>
     <t>Graph 1. Equivalised disposable household income at top of selected percentiles, 1994–95 to 2019–20(a)</t>
@@ -156,12 +96,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -445,7 +387,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -456,7 +398,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -480,8 +422,8 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+      <c r="A3" s="5">
+        <v>34394</v>
       </c>
       <c r="B3" s="2">
         <v>298</v>
@@ -500,8 +442,8 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
+      <c r="A4" s="5">
+        <v>34759</v>
       </c>
       <c r="B4" s="2">
         <v>296</v>
@@ -520,8 +462,8 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
+      <c r="A5" s="5">
+        <v>35125</v>
       </c>
       <c r="B5" s="2">
         <v>309</v>
@@ -540,8 +482,8 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
+      <c r="A6" s="5">
+        <v>35490</v>
       </c>
       <c r="B6" s="2">
         <v>310</v>
@@ -560,8 +502,8 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
+      <c r="A7" s="5">
+        <v>36220</v>
       </c>
       <c r="B7" s="2">
         <v>314</v>
@@ -580,8 +522,8 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
+      <c r="A8" s="6">
+        <v>36586</v>
       </c>
       <c r="B8" s="2">
         <v>317</v>
@@ -600,8 +542,8 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
+      <c r="A9" s="6">
+        <v>37316</v>
       </c>
       <c r="B9" s="2">
         <v>324</v>
@@ -620,8 +562,8 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
+      <c r="A10" s="5">
+        <v>37681</v>
       </c>
       <c r="B10" s="2">
         <v>357</v>
@@ -640,8 +582,8 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
+      <c r="A11" s="5">
+        <v>38412</v>
       </c>
       <c r="B11" s="2">
         <v>376</v>
@@ -660,8 +602,8 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
+      <c r="A12" s="5">
+        <v>39142</v>
       </c>
       <c r="B12" s="2">
         <v>406</v>
@@ -680,8 +622,8 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
+      <c r="A13" s="5">
+        <v>39873</v>
       </c>
       <c r="B13" s="2">
         <v>417</v>
@@ -700,8 +642,8 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
+      <c r="A14" s="5">
+        <v>40603</v>
       </c>
       <c r="B14" s="2">
         <v>438</v>
@@ -720,8 +662,8 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
+      <c r="A15" s="5">
+        <v>41334</v>
       </c>
       <c r="B15" s="2">
         <v>457</v>
@@ -740,8 +682,8 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
+      <c r="A16" s="5">
+        <v>42064</v>
       </c>
       <c r="B16" s="2">
         <v>466</v>
@@ -760,8 +702,8 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
+      <c r="A17" s="5">
+        <v>42795</v>
       </c>
       <c r="B17" s="2">
         <v>460</v>
@@ -780,8 +722,8 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
+      <c r="A18" s="5">
+        <v>43525</v>
       </c>
       <c r="B18" s="2">
         <v>475</v>
@@ -799,26 +741,12 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
+    <row r="20" spans="1:6" s="3" customFormat="1"/>
     <row r="22" spans="1:6" s="3" customFormat="1">
-      <c r="A22" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="3" customFormat="1">
-      <c r="A23" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="3" customFormat="1">
-      <c r="A25" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="1:6" s="3" customFormat="1"/>
+    <row r="25" spans="1:6" s="3" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Equivalised disposable household income at top of selected percentiles, 1994–95 to 2019–20(a).xlsx
+++ b/Equivalised disposable household income at top of selected percentiles, 1994–95 to 2019–20(a).xlsx
@@ -386,9 +386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>

--- a/Equivalised disposable household income at top of selected percentiles, 1994–95 to 2019–20(a).xlsx
+++ b/Equivalised disposable household income at top of selected percentiles, 1994–95 to 2019–20(a).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF514A7D-2244-C045-BD4E-7B01B98D1E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18460" windowHeight="9690"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="18460" windowHeight="9700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,12 +42,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -54,16 +55,18 @@
       <b/>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -106,7 +109,7 @@
     <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -383,12 +386,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="6" width="9.1640625" customWidth="1"/>
@@ -421,7 +426,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5">
-        <v>34394</v>
+        <v>34851</v>
       </c>
       <c r="B3" s="2">
         <v>298</v>
@@ -441,7 +446,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5">
-        <v>34759</v>
+        <v>35217</v>
       </c>
       <c r="B4" s="2">
         <v>296</v>
@@ -461,7 +466,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5">
-        <v>35125</v>
+        <v>35582</v>
       </c>
       <c r="B5" s="2">
         <v>309</v>
@@ -481,7 +486,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5">
-        <v>35490</v>
+        <v>35947</v>
       </c>
       <c r="B6" s="2">
         <v>310</v>
@@ -501,7 +506,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5">
-        <v>36220</v>
+        <v>36678</v>
       </c>
       <c r="B7" s="2">
         <v>314</v>
@@ -521,7 +526,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6">
-        <v>36586</v>
+        <v>37043</v>
       </c>
       <c r="B8" s="2">
         <v>317</v>
@@ -541,7 +546,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6">
-        <v>37316</v>
+        <v>37773</v>
       </c>
       <c r="B9" s="2">
         <v>324</v>
@@ -561,7 +566,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5">
-        <v>37681</v>
+        <v>38139</v>
       </c>
       <c r="B10" s="2">
         <v>357</v>
@@ -581,7 +586,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5">
-        <v>38412</v>
+        <v>38869</v>
       </c>
       <c r="B11" s="2">
         <v>376</v>
@@ -601,7 +606,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5">
-        <v>39142</v>
+        <v>39600</v>
       </c>
       <c r="B12" s="2">
         <v>406</v>
@@ -621,7 +626,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5">
-        <v>39873</v>
+        <v>40330</v>
       </c>
       <c r="B13" s="2">
         <v>417</v>
@@ -641,7 +646,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5">
-        <v>40603</v>
+        <v>41061</v>
       </c>
       <c r="B14" s="2">
         <v>438</v>
@@ -661,7 +666,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5">
-        <v>41334</v>
+        <v>41791</v>
       </c>
       <c r="B15" s="2">
         <v>457</v>
@@ -681,7 +686,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5">
-        <v>42064</v>
+        <v>42522</v>
       </c>
       <c r="B16" s="2">
         <v>466</v>
@@ -701,7 +706,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5">
-        <v>42795</v>
+        <v>43252</v>
       </c>
       <c r="B17" s="2">
         <v>460</v>
@@ -721,7 +726,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5">
-        <v>43525</v>
+        <v>43983</v>
       </c>
       <c r="B18" s="2">
         <v>475</v>
